--- a/src/api/data/导航.xlsx
+++ b/src/api/data/导航.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>zh</t>
   </si>
@@ -110,11 +110,17 @@
     <r>
       <rPr>
         <sz val="13"/>
-        <color indexed="13"/>
+        <color indexed="14"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t>https://www.meipian.cn/164118ga?from=groupmessage</t>
     </r>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>招聘详情</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -132,6 +138,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -152,7 +163,7 @@
     </font>
     <font>
       <sz val="13"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -176,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -203,6 +214,37 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -212,6 +254,31 @@
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -229,36 +296,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -281,6 +403,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff00a1ff"/>
     </indexedColors>
   </colors>
@@ -292,91 +415,259 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>101004</xdr:colOff>
+      <xdr:colOff>81953</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>697905</xdr:colOff>
+      <xdr:colOff>716953</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>99695</xdr:rowOff>
+      <xdr:rowOff>176215</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9693909" y="-153671"/>
-          <a:ext cx="3086101" cy="2044701"/>
+          <a:off x="9683153" y="-82260"/>
+          <a:ext cx="3124201" cy="2121221"/>
+          <a:chOff x="-19050" y="-76520"/>
+          <a:chExt cx="3124200" cy="2121220"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FFFCC1"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FFF499"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000">
-              <a:alpha val="15000"/>
-            </a:srgbClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="63500" dist="25400" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="25000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-          <a:r>
-            <a:t>xiaoweili, 昨天, 15:27
-</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Shape 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-1" y="0"/>
+            <a:ext cx="3086101" cy="2044700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="FFFCC1"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="FFF499"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="000000">
+                <a:alpha val="15000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="63500" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="25000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-19051" y="-76521"/>
+            <a:ext cx="3124201" cy="1173309"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica"/>
+              </a:rPr>
+              <a:t>xiaoweili, 昨天, 15:27</a:t>
+            </a:r>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Helvetica Neue"/>
+                <a:ea typeface="Helvetica Neue"/>
+                <a:cs typeface="Helvetica Neue"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Helvetica Neue"/>
+                <a:ea typeface="Helvetica Neue"/>
+                <a:cs typeface="Helvetica Neue"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:rPr>
+              <a:t>顺序一定不能乱！！！！标题也不能乱，必须是zh,hk,en这样的顺序写</a:t>
+            </a:r>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -388,87 +679,58 @@
               <a:ea typeface="Helvetica Neue"/>
               <a:cs typeface="Helvetica Neue"/>
               <a:sym typeface="Helvetica Neue"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>顺序一定不能乱！！！！标题也不能乱，必须是zh,hk,en这样的顺序写</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>第29行是集团动态的链接地址</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Helvetica Neue"/>
+                <a:ea typeface="Helvetica Neue"/>
+                <a:cs typeface="Helvetica Neue"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Helvetica Neue"/>
+                <a:ea typeface="Helvetica Neue"/>
+                <a:cs typeface="Helvetica Neue"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:rPr>
+              <a:t>第29行是集团动态的链接地址</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1563,16 +1825,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="40.2891" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7031" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.9062" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.55" customHeight="1">
@@ -1585,222 +1850,332 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" ht="31.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="6">
         <v>4</v>
       </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" ht="31.35" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="11">
         <v>5</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" ht="31.35" customHeight="1">
-      <c r="A4" t="s" s="5">
+      <c r="A4" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" ht="27.35" customHeight="1">
-      <c r="A5" t="s" s="5">
+      <c r="A5" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" ht="27.35" customHeight="1">
-      <c r="A6" t="s" s="5">
+      <c r="A6" t="s" s="11">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" ht="27.35" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="A7" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" ht="27.35" customHeight="1">
-      <c r="A8" t="s" s="5">
+      <c r="A8" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" ht="27.35" customHeight="1">
-      <c r="A9" t="s" s="5">
+      <c r="A9" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" ht="27.35" customHeight="1">
-      <c r="A10" t="s" s="5">
+      <c r="A10" t="s" s="11">
         <v>12</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" ht="27.35" customHeight="1">
-      <c r="A11" t="s" s="5">
+      <c r="A11" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" ht="27.35" customHeight="1">
-      <c r="A12" t="s" s="5">
+      <c r="A12" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" ht="27.35" customHeight="1">
-      <c r="A13" t="s" s="5">
+      <c r="A13" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" ht="27.35" customHeight="1">
-      <c r="A14" t="s" s="5">
+      <c r="A14" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" ht="27.35" customHeight="1">
-      <c r="A15" t="s" s="5">
+      <c r="A15" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" ht="27.35" customHeight="1">
-      <c r="A16" t="s" s="5">
+      <c r="A16" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" ht="27.35" customHeight="1">
-      <c r="A17" t="s" s="5">
+      <c r="A17" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" ht="27.35" customHeight="1">
-      <c r="A18" t="s" s="5">
+      <c r="A18" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" ht="27.35" customHeight="1">
-      <c r="A19" t="s" s="5">
+      <c r="A19" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" ht="27.35" customHeight="1">
-      <c r="A20" t="s" s="5">
+      <c r="A20" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" ht="27.35" customHeight="1">
-      <c r="A21" t="s" s="5">
+      <c r="A21" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" ht="27.35" customHeight="1">
-      <c r="A22" t="s" s="5">
+      <c r="A22" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" ht="27.35" customHeight="1">
-      <c r="A23" t="s" s="5">
+      <c r="A23" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" ht="27.35" customHeight="1">
-      <c r="A24" t="s" s="5">
+      <c r="A24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" ht="27.35" customHeight="1">
-      <c r="A25" t="s" s="5">
+      <c r="A25" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" ht="27.35" customHeight="1">
-      <c r="A26" t="s" s="5">
+      <c r="A26" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" ht="27.35" customHeight="1">
-      <c r="A27" t="s" s="5">
+      <c r="A27" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" ht="27.35" customHeight="1">
-      <c r="A28" t="s" s="5">
+      <c r="A28" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" ht="27.35" customHeight="1">
-      <c r="A29" t="s" s="5">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" ht="32.6" customHeight="1">
+      <c r="A29" t="s" s="11">
         <v>31</v>
       </c>
-      <c r="B29" t="s" s="5">
+      <c r="B29" t="s" s="11">
         <v>31</v>
       </c>
-      <c r="C29" t="s" s="5">
+      <c r="C29" t="s" s="11">
         <v>31</v>
       </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" ht="27.35" customHeight="1">
+      <c r="A30" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" ht="27.35" customHeight="1">
+      <c r="A31" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" ht="27.35" customHeight="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="B29" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="C29" r:id="rId3" location="" tooltip="" display=""/>
-  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/api/data/导航.xlsx
+++ b/src/api/data/导航.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="头部导航" sheetId="1" r:id="rId4"/>
+    <sheet name="头部导航" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>zh</t>
   </si>
@@ -26,9 +33,6 @@
     <t>首页</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>关于我们</t>
   </si>
   <si>
@@ -68,91 +72,255 @@
     <t>客户及行业</t>
   </si>
   <si>
+    <t>电子、线束加工类客户</t>
+  </si>
+  <si>
+    <t>求职</t>
+  </si>
+  <si>
+    <t>为什么选择鸿昇</t>
+  </si>
+  <si>
+    <t>工作机会</t>
+  </si>
+  <si>
+    <t>人力资源联络窗口</t>
+  </si>
+  <si>
+    <t>联络我们</t>
+  </si>
+  <si>
+    <t>工厂</t>
+  </si>
+  <si>
+    <t>销售部</t>
+  </si>
+  <si>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>您的位置</t>
+  </si>
+  <si>
+    <t>集团动态</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>招聘详情</t>
+  </si>
+  <si>
+    <t>首頁</t>
+  </si>
+  <si>
+    <t>home page</t>
+  </si>
+  <si>
+    <t>關於我們</t>
+  </si>
+  <si>
+    <t>About us</t>
+  </si>
+  <si>
+    <t>關於鴻昇</t>
+  </si>
+  <si>
+    <t>我們的優勢</t>
+  </si>
+  <si>
+    <t>Our advantages</t>
+  </si>
+  <si>
+    <t>產品及服務</t>
+  </si>
+  <si>
+    <t>電子產品、標籤、烘焙能力</t>
+  </si>
+  <si>
+    <t>產品線</t>
+  </si>
+  <si>
+    <t>線束裝配和印刷電路板組件</t>
+  </si>
+  <si>
+    <t>紙張切割</t>
+  </si>
+  <si>
+    <t>原始設計製造商及項目早期介入</t>
+  </si>
+  <si>
+    <t>售後服務</t>
+  </si>
+  <si>
+    <t>供應鏈管理</t>
+  </si>
+  <si>
+    <t>烘培和甜點</t>
+  </si>
+  <si>
+    <t>客戶及行業</t>
+  </si>
+  <si>
+    <t>食品、飲料類客戶</t>
+  </si>
+  <si>
+    <t>電子、線束加工類客戶</t>
+  </si>
+  <si>
+    <t>求職</t>
+  </si>
+  <si>
+    <t>為什麼選擇鴻昇</t>
+  </si>
+  <si>
+    <t>工作機會</t>
+  </si>
+  <si>
+    <t>人力資源聯絡視窗</t>
+  </si>
+  <si>
+    <t>聯絡我們</t>
+  </si>
+  <si>
+    <t>工廠</t>
+  </si>
+  <si>
+    <t>銷售部</t>
+  </si>
+  <si>
+    <t>倉庫</t>
+  </si>
+  <si>
+    <t>集團動態</t>
+  </si>
+  <si>
+    <t>Your position</t>
+  </si>
+  <si>
+    <t>Group dynamics</t>
+  </si>
+  <si>
+    <t>招聘詳情</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Recruitment details</t>
+  </si>
+  <si>
+    <t>About Hung Shang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hungshang-group.mikecrm.com/G7BQyQR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Products &amp; services</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric components, labels, baking capabilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cable Assembly &amp; PCBA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper Slitting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODM &amp; Early Project Involvement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>After Sales Service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supply Chain Management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bakery &amp; Pastry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customers &amp; Industry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>食品、饮料类客户</t>
-  </si>
-  <si>
-    <t>电子、线束加工类客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food &amp; Beverage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electronic &amp; Cable Assembly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>集团市场分布</t>
-  </si>
-  <si>
-    <t>求职</t>
-  </si>
-  <si>
-    <t>为什么选择鸿昇</t>
-  </si>
-  <si>
-    <t>工作机会</t>
-  </si>
-  <si>
-    <t>人力资源联络窗口</t>
-  </si>
-  <si>
-    <t>联络我们</t>
-  </si>
-  <si>
-    <t>工厂</t>
-  </si>
-  <si>
-    <t>销售部</t>
-  </si>
-  <si>
-    <t>仓库</t>
-  </si>
-  <si>
-    <t>您的位置</t>
-  </si>
-  <si>
-    <t>集团动态</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.meipian.cn/164118ga?from=groupmessage</t>
-    </r>
-  </si>
-  <si>
-    <t>返回</t>
-  </si>
-  <si>
-    <t>招聘详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集團市場分佈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Distribution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Career</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why Work at Hung Shang Group?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Offers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR Contact Windows</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contact Us</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locations (Factory)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locations (Sales)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK Warehouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -160,11 +328,27 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="14"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -328,90 +512,160 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff00a1ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF00A1FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -427,20 +681,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Group 4"/>
+        <xdr:cNvPr id="4" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9683153" y="-82260"/>
-          <a:ext cx="3124201" cy="2121221"/>
+          <a:off x="8483003" y="0"/>
+          <a:ext cx="2806700" cy="2100265"/>
           <a:chOff x="-19050" y="-76520"/>
           <a:chExt cx="3124200" cy="2121220"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="Shape 2"/>
+          <xdr:cNvPr id="2" name="Shape 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -472,7 +738,7 @@
             <a:miter lim="400000"/>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="63500" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="63500" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="25000"/>
               </a:srgbClr>
@@ -483,13 +749,19 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr/>
+            <a:endParaRPr/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPr id="3" name="Shape 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -508,7 +780,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -533,7 +805,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -548,7 +820,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -563,19 +835,6 @@
               </a:rPr>
               <a:t>xiaoweili, 昨天, 15:27</a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
@@ -593,7 +852,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -607,7 +866,7 @@
                 <a:sym typeface="Helvetica"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:endParaRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -637,7 +896,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -652,7 +911,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:rPr sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -667,19 +926,6 @@
               </a:rPr>
               <a:t>顺序一定不能乱！！！！标题也不能乱，必须是zh,hk,en这样的顺序写</a:t>
             </a:r>
-            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
@@ -697,7 +943,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -712,7 +958,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:rPr sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -737,7 +983,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -863,7 +1109,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -872,7 +1118,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -881,7 +1127,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -955,7 +1201,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -963,7 +1209,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -982,7 +1228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1012,7 +1258,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1038,7 +1284,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1064,7 +1310,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1090,7 +1336,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1116,7 +1362,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1142,7 +1388,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1168,7 +1414,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1194,7 +1440,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1220,7 +1466,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1233,9 +1479,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1250,7 +1502,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1258,7 +1510,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1277,7 +1529,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1555,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1581,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1607,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1633,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +1659,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +1685,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +1711,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +1737,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +1763,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,9 +1776,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1540,7 +1798,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1559,7 +1817,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1589,7 +1847,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1615,7 +1873,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1641,7 +1899,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1667,7 +1925,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1693,7 +1951,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1719,7 +1977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1745,7 +2003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1771,7 +2029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1797,7 +2055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1810,372 +2068,496 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" ht="31.55" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="6">
+      <c r="B2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" ht="31.35" customHeight="1">
-      <c r="A3" t="s" s="11">
+      <c r="B3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" ht="31.35" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="B4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" ht="27.35" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="B5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" ht="27.35" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="B6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" ht="27.35" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="B7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" ht="27.35" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="B8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" ht="27.35" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="B9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" ht="27.35" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="B10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" ht="27.35" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="B11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" ht="27.35" customHeight="1">
-      <c r="A12" t="s" s="11">
+      <c r="B12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" ht="27.35" customHeight="1">
-      <c r="A13" t="s" s="11">
+      <c r="B13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" ht="27.35" customHeight="1">
-      <c r="A14" t="s" s="11">
+      <c r="B14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" ht="27.35" customHeight="1">
-      <c r="A15" t="s" s="11">
+      <c r="B15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" ht="27.35" customHeight="1">
-      <c r="A16" t="s" s="11">
+      <c r="B17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" ht="27.35" customHeight="1">
-      <c r="A17" t="s" s="11">
+      <c r="B19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" ht="27.35" customHeight="1">
-      <c r="A18" t="s" s="11">
+      <c r="B20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" ht="27.35" customHeight="1">
-      <c r="A19" t="s" s="11">
+      <c r="B21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" ht="27.35" customHeight="1">
-      <c r="A20" t="s" s="11">
+      <c r="B22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" ht="27.35" customHeight="1">
-      <c r="A21" t="s" s="11">
+      <c r="B23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" ht="27.35" customHeight="1">
-      <c r="A22" t="s" s="11">
+      <c r="B24" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" ht="27.35" customHeight="1">
-      <c r="A23" t="s" s="11">
+      <c r="B25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" ht="27.35" customHeight="1">
-      <c r="A24" t="s" s="11">
+      <c r="B26" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" ht="27.35" customHeight="1">
-      <c r="A25" t="s" s="11">
+      <c r="B27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" ht="27.35" customHeight="1">
-      <c r="A26" t="s" s="11">
+      <c r="B28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" ht="27.35" customHeight="1">
-      <c r="A27" t="s" s="11">
+      <c r="B30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" ht="27.35" customHeight="1">
-      <c r="A28" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" ht="32.6" customHeight="1">
-      <c r="A29" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" ht="27.35" customHeight="1">
-      <c r="A30" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" ht="27.35" customHeight="1">
-      <c r="A31" t="s" s="11">
-        <v>33</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" ht="27.35" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
+      <c r="B31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A29" r:id="rId1"/>
+    <hyperlink ref="B29" r:id="rId2"/>
+    <hyperlink ref="C29" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/src/api/data/导航.xlsx
+++ b/src/api/data/导航.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\hongsheng\src\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADE32CD-9493-4D5F-8431-D926320CDEEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="头部导航" sheetId="1" r:id="rId1"/>
@@ -123,9 +124,6 @@
     <t>About us</t>
   </si>
   <si>
-    <t>關於鴻昇</t>
-  </si>
-  <si>
     <t>我們的優勢</t>
   </si>
   <si>
@@ -169,9 +167,6 @@
   </si>
   <si>
     <t>求職</t>
-  </si>
-  <si>
-    <t>為什麼選擇鴻昇</t>
   </si>
   <si>
     <t>工作機會</t>
@@ -312,12 +307,18 @@
   <si>
     <t>HK Warehouse</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>關於鸿昇</t>
+  </si>
+  <si>
+    <t>為什麼選擇鸿昇</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -692,8 +693,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8483003" y="0"/>
-          <a:ext cx="2806700" cy="2100265"/>
+          <a:off x="8883053" y="0"/>
+          <a:ext cx="2908300" cy="2106615"/>
           <a:chOff x="-19050" y="-76520"/>
           <a:chExt cx="3124200" cy="2121220"/>
         </a:xfrm>
@@ -780,7 +781,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2086,25 +2087,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="256" width="16.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2119,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2132,7 +2133,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="31.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2146,329 +2147,329 @@
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="31.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
@@ -2476,41 +2477,41 @@
         <v>26</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>28</v>
       </c>
@@ -2518,27 +2519,27 @@
         <v>28</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2549,9 +2550,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1"/>
-    <hyperlink ref="B29" r:id="rId2"/>
-    <hyperlink ref="C29" r:id="rId3"/>
+    <hyperlink ref="A29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B29" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
